--- a/medicine/Psychotrope/Cardinal_(brasserie)/Cardinal_(brasserie).xlsx
+++ b/medicine/Psychotrope/Cardinal_(brasserie)/Cardinal_(brasserie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cardinal était une brasserie suisse située à Fribourg de 1788 à 2012. La marque Cardinal appartient à Feldschlösschen Boissons SA, une filiale du groupe Carlsberg.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1788, François Piller lance la construction d'une brasserie à côté de l'auberge du Saumon à Fribourg (Zum Salmen, juste après la Porte de Berne). Pour ce faire, il engage un brasseur bavarois et fait former son fils de 15 ans. En 1802, le fils, parti quelque temps à Dillingen chez le brasseur, reprend les rênes, son père étant décédé prématurément en 1790. La brasserie déménage dans le quartier de la Neuveville à Fribourg, dans l'immeuble no 48, puis est reprise par Paul-Alcide Blancpain en 1877. Le brassage industriel démarre.
 En 1890, la brasserie opère le premier brassage de la bière de fête du Cardinal à l'occasion de la nomination de l'évêque de Fribourg Mgr Gaspard Mermillod comme Cardinal par le Pape Léon XIII. Devant le succès rencontré, Paul Blancpain décide de donner le nom « Cardinal » à sa brasserie. Les locaux en vieille ville deviennent trop exigüs pour faire face à l'augmentation de la production. En 1904, la brasserie déménage à nouveau à son emplacement actuel près de la gare.
